--- a/static/file/data.xlsx
+++ b/static/file/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>OrderDate</t>
   </si>
@@ -64,37 +64,184 @@
     <t>ShippingId</t>
   </si>
   <si>
-    <t>21-11-2023</t>
+    <t>22-11-2023</t>
   </si>
   <si>
     <t>202311000</t>
   </si>
   <si>
-    <t>พชพล</t>
-  </si>
-  <si>
-    <t>บ้านเลขที่ 56ซอย พระราม 2 ซอย3 แยก3ถนน พระราม2แขวง บางมดเขต Krung Thep Mahanakhon (Bangkok)จังหวัด Thailand10150</t>
-  </si>
-  <si>
-    <t>0908133372</t>
+    <t>ธัญญวัฒน์</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ 4ซอย พร้อมมิตรถนน สุขุมวิท39แขวง คลองตันเหนือเขต วัฒนาจังหวัด กรุงเทพ10110</t>
+  </si>
+  <si>
+    <t>0994461699</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>fsd(11)</t>
-  </si>
-  <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>1231231</t>
+    <t>ผัดสลัด กรีนโอ๊ก Green oak Salad(Green oak Salad )</t>
+  </si>
+  <si>
+    <t>ผักสลัด กรีนโอ๊ก 
+จากสวน นางบัวคำ…
+19/2 หมู่3 บ้านม่วงคำ โป่งแยง แม่ริม เชียงใหม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green oak Salad </t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>uhfhuashf</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>มะเขือเทศ โทมัส Tomato (Thomas)(tomato)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">มะเขือเทศ คัดเกรด เอ ขนาดใหญ่
+ปลูกโดย นางบัวคำ สารยะสะ;19/3หมู่ 3 บ้านม่วงคำ, โป่งแยง, แม่ริม เชียงใหม่ </t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>red oak ...testing(red oak salad)</t>
+  </si>
+  <si>
+    <t>red oak salad.... blah balh</t>
+  </si>
+  <si>
+    <t>red oak salad</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>blackberry Jam(bottle (ขวด))</t>
+  </si>
+  <si>
+    <t>Blackberry jam..... blah...</t>
+  </si>
+  <si>
+    <t>bottle (ขวด)</t>
+  </si>
+  <si>
+    <t>202311001</t>
+  </si>
+  <si>
+    <t>ณฐมน</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ 1747/23ซอย -ถนน สุขุมวิท​แขวง พระโขนงเหนือเขต วัฒนาจังหวัด กรุงเทพ​10110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0896499190 </t>
+  </si>
+  <si>
+    <t>66868</t>
+  </si>
+  <si>
+    <t>202311002</t>
+  </si>
+  <si>
+    <t>Sangarpa</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ 4ซอย Prommitถนน Sukumvit 39แขวง Klongtonnuaเขต Wattana จังหวัด Bkk10110</t>
+  </si>
+  <si>
+    <t>0995954966</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>ijifewfjwe</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Raspberry Jam(raspberry)</t>
+  </si>
+  <si>
+    <t>Raspberry jam.. blah blah</t>
+  </si>
+  <si>
+    <t>raspberry</t>
+  </si>
+  <si>
+    <t>202311003</t>
+  </si>
+  <si>
+    <t>dwjiwdw</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>202311004</t>
+  </si>
+  <si>
+    <t>dwiwid</t>
+  </si>
+  <si>
+    <t>24-11-2023</t>
+  </si>
+  <si>
+    <t>202311005</t>
+  </si>
+  <si>
+    <t>lek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บ้านเลขที่ 33ซอย suk ถนน sukแขวง kloเขต toeiจังหวัด bkk10110 </t>
+  </si>
+  <si>
+    <t>3778431</t>
+  </si>
+  <si>
+    <t>kwdowod</t>
+  </si>
+  <si>
+    <t>11-10-2023</t>
+  </si>
+  <si>
+    <t>202311006</t>
+  </si>
+  <si>
+    <t>ณัฐพล</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ 33ซอย สุขุมวิท36ถนน สุขุมวิทแขวง คลองตันเขต คลองเตยจังหวัด กรุงเทพ10110</t>
+  </si>
+  <si>
+    <t>0818287860</t>
+  </si>
+  <si>
+    <t>dniwndqw</t>
+  </si>
+  <si>
+    <t>202311007</t>
+  </si>
+  <si>
+    <t>mdwodw</t>
+  </si>
+  <si>
+    <t>202311008</t>
+  </si>
+  <si>
+    <t>doiwjidow</t>
   </si>
 </sst>
 </file>
@@ -471,13 +618,13 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H2">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -492,16 +639,1216 @@
         <v>24</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>420</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>570</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>420</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>570</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>420</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5">
+        <v>570</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <v>350</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>350</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>380</v>
+      </c>
+      <c r="G8">
+        <v>150</v>
+      </c>
+      <c r="H8">
+        <v>530</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>380</v>
+      </c>
+      <c r="G9">
+        <v>150</v>
+      </c>
+      <c r="H9">
+        <v>530</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>420</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>570</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>420</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+      <c r="H11">
+        <v>570</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>420</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>570</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>420</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>570</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>420</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <v>570</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>420</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>570</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>60</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>420</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
+        <v>570</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>420</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>570</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>620</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>770</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>620</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+      <c r="H19">
+        <v>770</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>60</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>620</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>770</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21">
+        <v>260</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+      <c r="H21">
+        <v>410</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>260</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>410</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>60</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>260</v>
+      </c>
+      <c r="G23">
+        <v>150</v>
+      </c>
+      <c r="H23">
+        <v>410</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>260</v>
+      </c>
+      <c r="G24">
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <v>410</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>260</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>410</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>260</v>
+      </c>
+      <c r="G26">
+        <v>150</v>
+      </c>
+      <c r="H26">
+        <v>410</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/static/file/data.xlsx
+++ b/static/file/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>OrderDate</t>
   </si>
@@ -64,10 +64,10 @@
     <t>ShippingId</t>
   </si>
   <si>
-    <t>21-11-2023</t>
-  </si>
-  <si>
-    <t>202311000</t>
+    <t>09-12-2023</t>
+  </si>
+  <si>
+    <t>202312032</t>
   </si>
   <si>
     <t>พชพล</t>
@@ -79,22 +79,34 @@
     <t>0908133372</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>fsd(11)</t>
-  </si>
-  <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>156</t>
+  </si>
+  <si>
+    <t>ราสเบอรี่ สเปรด (Raspberry Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>แยมราสเบอรี่ทาขนมปัง มีเนื้อผลไม้มากกว่า 70% รสชาติหวานอมเปรี้ยว หอมกลิ่นผลไม้แท้ๆ ไม่เจือสี ไม่แต่งกลิ่นสังเคราะห์ เมื่อเปิดแล้ว ควรเก็บในตู้เย็นและบริโภคภายใน 2 สัปดาห์</t>
+  </si>
+  <si>
+    <t>ขวด</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>1231231</t>
+    <t/>
+  </si>
+  <si>
+    <t>202312033</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>discount100</t>
+  </si>
+  <si>
+    <t>ส่วนลดd</t>
   </si>
 </sst>
 </file>
@@ -471,13 +483,13 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>444</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H2">
-        <v>494</v>
+        <v>270</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -492,15 +504,115 @@
         <v>24</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>170</v>
+      </c>
+      <c r="H3">
+        <v>1170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>-100</v>
+      </c>
+      <c r="G4">
+        <v>170</v>
+      </c>
+      <c r="H4">
+        <v>1170</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>-100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/static/file/data.xlsx
+++ b/static/file/data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>OrderDate</t>
   </si>
@@ -64,49 +65,400 @@
     <t>ShippingId</t>
   </si>
   <si>
+    <t>15-12-2023</t>
+  </si>
+  <si>
+    <t>202312000</t>
+  </si>
+  <si>
+    <t>พชพล</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ 56ซอย พระราม 2 ซอย3 แยก3ถนน พระราม2แขวง บางมดเขต Krung Thep Mahanakhon (Bangkok)จังหวัด Thailand10150</t>
+  </si>
+  <si>
+    <t>0908133372</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>ราสเบอรี่ สเปรด (Raspberry Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>แยมราสเบอรี่ทาขนมปัง มีเนื้อผลไม้มากกว่า 70% รสชาติหวานอมเปรี้ยว หอมกลิ่นผลไม้แท้ๆ ไม่เจือสี ไม่แต่งกลิ่นสังเคราะห์ เมื่อเปิดแล้ว ควรเก็บในตู้เย็นและบริโภคภายใน 2 สัปดาห์</t>
+  </si>
+  <si>
+    <t>ขวด</t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>05-12-2023</t>
+  </si>
+  <si>
+    <t>202312001</t>
+  </si>
+  <si>
+    <t>10-12-2023</t>
+  </si>
+  <si>
+    <t>202312002</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>กรีนโอ๊ค (Green Oak Lettuce)(500g)</t>
+  </si>
+  <si>
+    <t>ผักสลัดไฮโดรโปนิกจากสวนคุณโอ</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>202312003</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>06-12-2023</t>
+  </si>
+  <si>
+    <t>202312004</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>202312005</t>
+  </si>
+  <si>
+    <t>08-12-2023</t>
+  </si>
+  <si>
+    <t>202312006</t>
+  </si>
+  <si>
+    <t>202312007</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>202312008</t>
+  </si>
+  <si>
+    <t>202312009</t>
+  </si>
+  <si>
+    <t>202312010</t>
+  </si>
+  <si>
+    <t>202312011</t>
+  </si>
+  <si>
+    <t>202312012</t>
+  </si>
+  <si>
+    <t>202312013</t>
+  </si>
+  <si>
+    <t>202312014</t>
+  </si>
+  <si>
+    <t>202312015</t>
+  </si>
+  <si>
+    <t>202312016</t>
+  </si>
+  <si>
+    <t>202312017</t>
+  </si>
+  <si>
+    <t>202312018</t>
+  </si>
+  <si>
+    <t>202312019</t>
+  </si>
+  <si>
+    <t>202312020</t>
+  </si>
+  <si>
+    <t>202312021</t>
+  </si>
+  <si>
+    <t>202312022</t>
+  </si>
+  <si>
+    <t>202312023</t>
+  </si>
+  <si>
+    <t>202312024</t>
+  </si>
+  <si>
+    <t>202312025</t>
+  </si>
+  <si>
+    <t>202312026</t>
+  </si>
+  <si>
+    <t>202312027</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>discount100</t>
+  </si>
+  <si>
+    <t>ส่วนลดd</t>
+  </si>
+  <si>
+    <t>202312028</t>
+  </si>
+  <si>
+    <t>202312029</t>
+  </si>
+  <si>
+    <t>202312030</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>ส่วนลด200</t>
+  </si>
+  <si>
+    <t>202312031</t>
+  </si>
+  <si>
     <t>09-12-2023</t>
   </si>
   <si>
     <t>202312032</t>
   </si>
   <si>
-    <t>พชพล</t>
-  </si>
-  <si>
-    <t>บ้านเลขที่ 56ซอย พระราม 2 ซอย3 แยก3ถนน พระราม2แขวง บางมดเขต Krung Thep Mahanakhon (Bangkok)จังหวัด Thailand10150</t>
-  </si>
-  <si>
-    <t>0908133372</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>ราสเบอรี่ สเปรด (Raspberry Spread)(ขวด)</t>
-  </si>
-  <si>
-    <t>แยมราสเบอรี่ทาขนมปัง มีเนื้อผลไม้มากกว่า 70% รสชาติหวานอมเปรี้ยว หอมกลิ่นผลไม้แท้ๆ ไม่เจือสี ไม่แต่งกลิ่นสังเคราะห์ เมื่อเปิดแล้ว ควรเก็บในตู้เย็นและบริโภคภายใน 2 สัปดาห์</t>
-  </si>
-  <si>
-    <t>ขวด</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>202312033</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>discount100</t>
-  </si>
-  <si>
-    <t>ส่วนลดd</t>
+    <t>202312034</t>
+  </si>
+  <si>
+    <t>ส่วนลดค่าจัดส่่ง(เมื่อซื้อครบ 2000 บาท)</t>
+  </si>
+  <si>
+    <t>202312035</t>
+  </si>
+  <si>
+    <t>ส่วนลดค่าจัดส่่ง(เมื่อซื้อครบ 1000 บาท)</t>
+  </si>
+  <si>
+    <t>202312036</t>
+  </si>
+  <si>
+    <t>202312037</t>
+  </si>
+  <si>
+    <t>202312038</t>
+  </si>
+  <si>
+    <t>สินค้า</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>กรีนโอ๊ค (Green Oak Lettuce)(1kg)</t>
+  </si>
+  <si>
+    <t>เรดโอ๊ค (Red Oak Lettuce)(500g)</t>
+  </si>
+  <si>
+    <t>เรดโอ๊ค (Red Oak Lettuce)(1kg)</t>
+  </si>
+  <si>
+    <t>ฟิลเลย์ ไอซ์เบิร์ก (Frillice Iceberg Lettuce)(500g)</t>
+  </si>
+  <si>
+    <t>ฟิลเลย์ ไอซ์เบิร์ก (Frillice Iceberg Lettuce)(1kg)</t>
+  </si>
+  <si>
+    <t>เรดโครอล (Red Coral Lettuce)(500g)</t>
+  </si>
+  <si>
+    <t>เรดโครอล (Red Coral Lettuce)(1kg)</t>
+  </si>
+  <si>
+    <t>กรีนคอส (Cos Lettuce)(500g)</t>
+  </si>
+  <si>
+    <t>กรีนคอส (Cos Lettuce)(1kg)</t>
+  </si>
+  <si>
+    <t>หัวไช้เท้า (Radish)(500g)</t>
+  </si>
+  <si>
+    <t>หัวไช้เท้า (Radish)(1kg)</t>
+  </si>
+  <si>
+    <t>แครอท (Carrot)(500g)</t>
+  </si>
+  <si>
+    <t>แครอท (Carrot)(1kg)</t>
+  </si>
+  <si>
+    <t>มะเขือม่วง (Black Beauty Eggplant)(500g)</t>
+  </si>
+  <si>
+    <t>มะเขือม่วง (Black Beauty Eggplant)(1kg)</t>
+  </si>
+  <si>
+    <t>แตงกวาญี่ปุ่น (Japanese Cucumber)(500g)</t>
+  </si>
+  <si>
+    <t>แตงกวาญี่ปุ่น (Japanese Cucumber)(1kg)</t>
+  </si>
+  <si>
+    <t>ขิง (Ginger)(500g)</t>
+  </si>
+  <si>
+    <t>ขิง (Ginger)(1kg)</t>
+  </si>
+  <si>
+    <t>เคล (Kale)(500g)</t>
+  </si>
+  <si>
+    <t>เคล (Kale)(1kg)</t>
+  </si>
+  <si>
+    <t>คะน้า ฮ่องกง (Hongkong Kale)(500g)</t>
+  </si>
+  <si>
+    <t>คะน้า ฮ่องกง (Hongkong Kale)(1kg)</t>
+  </si>
+  <si>
+    <t>มะแขว่นหอมแห้ง (Ma-khwaen)(ขวด)</t>
+  </si>
+  <si>
+    <t>มะเขือเทศ โทมัส (Thomas Tomato)(500g)</t>
+  </si>
+  <si>
+    <t>มะเขือเทศ โทมัส (Thomas Tomato)(1kg)</t>
+  </si>
+  <si>
+    <t>ฟักทองญี่ปุ่น (Japanese Pumpkin)(500g)</t>
+  </si>
+  <si>
+    <t>ฟักทองญี่ปุ่น (Japanese Pumpkin)(1kg)</t>
+  </si>
+  <si>
+    <t>ฟักทองมินิ (Mini Pumpkin)(500g)</t>
+  </si>
+  <si>
+    <t>ฟักทองมินิ (Mini Pumpkin)(1kg)</t>
+  </si>
+  <si>
+    <t>ฟักทองใหญ่ (Pumpkin)(500g)</t>
+  </si>
+  <si>
+    <t>ฟักทองใหญ่ (Pumpkin)(1kg)</t>
+  </si>
+  <si>
+    <t>อะโวคาโด พันธุ์แฮส (Hass Avocado)(500g)</t>
+  </si>
+  <si>
+    <t>อะโวคาโด พันธุ์แฮส (Hass Avocado)(1kg)</t>
+  </si>
+  <si>
+    <t>พริกหวาน3สี (Bell pepper)(500g)</t>
+  </si>
+  <si>
+    <t>พริกหวาน3สี (Bell pepper)(1kg)</t>
+  </si>
+  <si>
+    <t>ราสเบอรี่คอมบูชะ (Raspberry Kombucha)(ขวด (ml))</t>
+  </si>
+  <si>
+    <t>แบล็คเบอรี่คอมบูชะ (Blackberry Kombucha)(ขวด (ml))</t>
+  </si>
+  <si>
+    <t>คุกกี้ไต้หวัน ไส้ราสเบอรี่ (Taiwanese Raspberry Tart)(กล่อง (6 ชิ้น))</t>
+  </si>
+  <si>
+    <t>คุกกี้บัตเตอร์ มิกซ์เบอรี่ (Mixed Berries Butter Cookies)(กระปุก)</t>
+  </si>
+  <si>
+    <t>คุกกี้ราสเบอรี่ (Raspberry Cookie)(กระปุก)</t>
+  </si>
+  <si>
+    <t>น้ำสลัดราสเบอรี่ (Raspberry Vinaigrette)(ขวด)</t>
+  </si>
+  <si>
+    <t>เลมอน สเปรด (Lemon Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>แบล็คเบอรี่ สเปรด (Blackberry Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>โรสเบอรี่ สเปรด (Roseberry Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>แพชชั่นฟรุต สเปรด (Passion Fruit Spread)(ขวด)</t>
+  </si>
+  <si>
+    <t>ราสเบอรี่ซอส (Raspberry Sauce)(ขวด)</t>
+  </si>
+  <si>
+    <t>แบล็คเบอรี่ซอส (Blackberry Sauce)(ขวด)</t>
+  </si>
+  <si>
+    <t>ซอสเสาวรส (Passion Fruit Sauce)(ขวด)</t>
+  </si>
+  <si>
+    <t>มิกซ์เบอรี่และผักดอง (Mixed Berries &amp; Veggie Pickles)(ขวด)</t>
+  </si>
+  <si>
+    <t>มิกซ์เบอรี่ดอง (Mixed Berries Pickles)(ขวด)</t>
+  </si>
+  <si>
+    <t>ดอกกุหลาบ (Rose)(กำ)</t>
+  </si>
+  <si>
+    <t>ครีมทามือ กลิ่นราสเบอรี่ (Raspberry Hand Cream)(ตลับ)</t>
+  </si>
+  <si>
+    <t>เจลบำรุงมือ (Raspberry Hand)(หลอด)</t>
+  </si>
+  <si>
+    <t>สบู่ (Soap)(มะกรูด)</t>
+  </si>
+  <si>
+    <t>สบู่ (Soap)(ขิง)</t>
+  </si>
+  <si>
+    <t>สบู่ (Soap)(กุหลาบ)</t>
+  </si>
+  <si>
+    <t>สบู่ (Soap)(ราสเบอรี่)</t>
+  </si>
+  <si>
+    <t>ส่วนลดค่าจัดส่่ง(เมื่อซื้อครบ 1000 บาท)(discount100)</t>
+  </si>
+  <si>
+    <t>ส่วนลดค่าจัดส่่ง(เมื่อซื้อครบ 2000 บาท)(ส่วนลด200)</t>
   </si>
 </sst>
 </file>
@@ -518,10 +870,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -539,7 +891,7 @@
         <v>170</v>
       </c>
       <c r="H3">
-        <v>1170</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -554,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -568,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -583,37 +935,3002 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>170</v>
       </c>
       <c r="H4">
-        <v>1170</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>-100</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>170</v>
+      </c>
+      <c r="H5">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>170</v>
+      </c>
+      <c r="H6">
+        <v>270</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>170</v>
+      </c>
+      <c r="H7">
+        <v>1370</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>170</v>
+      </c>
+      <c r="H8">
+        <v>2370</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>2370</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>170</v>
+      </c>
+      <c r="H10">
+        <v>1270</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>170</v>
+      </c>
+      <c r="H11">
+        <v>1370</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>170</v>
+      </c>
+      <c r="H18">
+        <v>1170</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>170</v>
+      </c>
+      <c r="H19">
+        <v>1170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>170</v>
+      </c>
+      <c r="H20">
+        <v>270</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>170</v>
+      </c>
+      <c r="H21">
+        <v>270</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>170</v>
+      </c>
+      <c r="H22">
+        <v>1170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+      <c r="H23">
+        <v>1170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>170</v>
+      </c>
+      <c r="H24">
+        <v>1270</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>170</v>
+      </c>
+      <c r="H25">
+        <v>1170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>170</v>
+      </c>
+      <c r="H26">
+        <v>1170</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>170</v>
+      </c>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>170</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>170</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>170</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>170</v>
+      </c>
+      <c r="H31">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>-100</v>
+      </c>
+      <c r="G32">
+        <v>170</v>
+      </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>-100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>170</v>
+      </c>
+      <c r="H33">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>-100</v>
+      </c>
+      <c r="G34">
+        <v>170</v>
+      </c>
+      <c r="H34">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>-100</v>
+      </c>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>170</v>
+      </c>
+      <c r="H35">
+        <v>1870</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-100</v>
+      </c>
+      <c r="G36">
+        <v>170</v>
+      </c>
+      <c r="H36">
+        <v>1870</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>-100</v>
+      </c>
+      <c r="O36" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>170</v>
+      </c>
+      <c r="H37">
+        <v>1970</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>-200</v>
+      </c>
+      <c r="G38">
+        <v>170</v>
+      </c>
+      <c r="H38">
+        <v>1970</v>
+      </c>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>-200</v>
+      </c>
+      <c r="O38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>1970</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>100</v>
+      </c>
+      <c r="O39" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>-200</v>
+      </c>
+      <c r="G40">
+        <v>170</v>
+      </c>
+      <c r="H40">
+        <v>1970</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>-200</v>
+      </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>170</v>
+      </c>
+      <c r="H41">
+        <v>270</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>170</v>
+      </c>
+      <c r="H42">
+        <v>1170</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>-100</v>
+      </c>
+      <c r="G43">
+        <v>170</v>
+      </c>
+      <c r="H43">
+        <v>1170</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>-100</v>
+      </c>
+      <c r="O43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>170</v>
+      </c>
+      <c r="H44">
+        <v>2270</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>12</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+      <c r="O44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>170</v>
+      </c>
+      <c r="H45">
+        <v>2270</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>-200</v>
+      </c>
+      <c r="G46">
+        <v>170</v>
+      </c>
+      <c r="H46">
+        <v>2270</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>-200</v>
+      </c>
+      <c r="O46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>170</v>
+      </c>
+      <c r="H47">
+        <v>1170</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>11</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>-100</v>
+      </c>
+      <c r="G48">
+        <v>170</v>
+      </c>
+      <c r="H48">
+        <v>1170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>-100</v>
+      </c>
+      <c r="O48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>170</v>
+      </c>
+      <c r="H49">
+        <v>2870</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>170</v>
+      </c>
+      <c r="H50">
+        <v>2870</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>-200</v>
+      </c>
+      <c r="G51">
+        <v>170</v>
+      </c>
+      <c r="H51">
+        <v>2870</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>-200</v>
+      </c>
+      <c r="O51" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>170</v>
+      </c>
+      <c r="H52">
+        <v>1270</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>11</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>170</v>
+      </c>
+      <c r="H53">
+        <v>1270</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
